--- a/game_excel/effect.xlsx
+++ b/game_excel/effect.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="144">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>fx_bullethit_A1010</t>
+  </si>
+  <si>
+    <t>fx_h1038fld_skill01</t>
   </si>
 </sst>
 </file>
@@ -929,13 +932,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B105" sqref="B105:B114"/>
+      <selection pane="bottomRight" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2330,16 +2333,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="C71" s="4">
         <v>1</v>
       </c>
       <c r="D71" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2353,13 +2356,13 @@
         <v>67</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C72" s="4">
         <v>1</v>
       </c>
       <c r="D72" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2373,13 +2376,13 @@
         <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C73" s="4">
         <v>1</v>
       </c>
       <c r="D73" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2393,13 +2396,13 @@
         <v>67</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
       </c>
       <c r="D74" s="4">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2413,13 +2416,13 @@
         <v>67</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
       <c r="D75" s="4">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2428,12 +2431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>80</v>
+      <c r="B76" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
@@ -2448,12 +2451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="12.75" customHeight="1">
+    <row r="77" spans="1:6" ht="15" customHeight="1">
       <c r="A77" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
@@ -2473,13 +2476,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
       </c>
       <c r="D78" s="4">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2493,13 +2496,13 @@
         <v>67</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79" s="4">
         <v>1</v>
       </c>
       <c r="D79" s="4">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2513,13 +2516,13 @@
         <v>67</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C80" s="4">
         <v>1</v>
       </c>
       <c r="D80" s="4">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2533,7 +2536,7 @@
         <v>67</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" s="4">
         <v>1</v>
@@ -2553,13 +2556,13 @@
         <v>67</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
       </c>
       <c r="D82" s="4">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2573,13 +2576,13 @@
         <v>67</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C83" s="4">
         <v>1</v>
       </c>
       <c r="D83" s="4">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2593,7 +2596,7 @@
         <v>67</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
@@ -2613,7 +2616,7 @@
         <v>67</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" s="4">
         <v>1</v>
@@ -2633,7 +2636,7 @@
         <v>67</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="4">
         <v>1</v>
@@ -2653,7 +2656,7 @@
         <v>67</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C87" s="4">
         <v>1</v>
@@ -2673,13 +2676,13 @@
         <v>67</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="4">
         <v>1</v>
       </c>
       <c r="D88" s="4">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2693,13 +2696,13 @@
         <v>67</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C89" s="4">
         <v>1</v>
       </c>
       <c r="D89" s="4">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2708,18 +2711,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="12.75" customHeight="1">
       <c r="A90" t="s">
         <v>67</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>72</v>
+      <c r="B90" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C90" s="4">
         <v>1</v>
       </c>
       <c r="D90" s="4">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2733,7 +2736,7 @@
         <v>67</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C91" s="4">
         <v>1</v>
@@ -2753,13 +2756,13 @@
         <v>67</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C92" s="4">
         <v>1</v>
       </c>
       <c r="D92" s="4">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2773,13 +2776,13 @@
         <v>67</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C93" s="4">
         <v>1</v>
       </c>
       <c r="D93" s="4">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2793,13 +2796,13 @@
         <v>67</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C94" s="4">
         <v>1</v>
       </c>
       <c r="D94" s="4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2813,16 +2816,16 @@
         <v>67</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
       </c>
       <c r="D95" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F95" s="4">
         <v>0</v>
@@ -2830,19 +2833,19 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
       </c>
       <c r="D96" s="4">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" s="4">
         <v>0</v>
@@ -2850,10 +2853,10 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" s="4">
         <v>1</v>
@@ -2870,10 +2873,10 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -2890,10 +2893,10 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2910,16 +2913,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C100" s="4">
         <v>1</v>
       </c>
       <c r="D100" s="4">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -2933,7 +2936,7 @@
         <v>68</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C101" s="4">
         <v>1</v>
@@ -2953,7 +2956,7 @@
         <v>68</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C102" s="4">
         <v>1</v>
@@ -2973,7 +2976,7 @@
         <v>68</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C103" s="4">
         <v>1</v>
@@ -2993,7 +2996,7 @@
         <v>68</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C104" s="4">
         <v>1</v>
@@ -3010,16 +3013,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>132</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>133</v>
+        <v>68</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C105" s="4">
         <v>1</v>
       </c>
       <c r="D105" s="4">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3030,10 +3033,10 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C106" s="4">
         <v>1</v>
@@ -3053,7 +3056,7 @@
         <v>131</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C107" s="4">
         <v>1</v>
@@ -3073,7 +3076,7 @@
         <v>131</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C108" s="4">
         <v>1</v>
@@ -3093,7 +3096,7 @@
         <v>131</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C109" s="4">
         <v>1</v>
@@ -3113,7 +3116,7 @@
         <v>131</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C110" s="4">
         <v>1</v>
@@ -3133,7 +3136,7 @@
         <v>131</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -3153,7 +3156,7 @@
         <v>131</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -3173,7 +3176,7 @@
         <v>131</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C113" s="4">
         <v>1</v>
@@ -3193,7 +3196,7 @@
         <v>131</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C114" s="4">
         <v>1</v>
@@ -3205,6 +3208,26 @@
         <v>1</v>
       </c>
       <c r="F114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" s="4">
+        <v>1</v>
+      </c>
+      <c r="D115" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" s="4">
         <v>0</v>
       </c>
     </row>
